--- a/Web_Reichweite.xlsx
+++ b/Web_Reichweite.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktglbuc-my.sharepoint.com/personal/martin_wettstein_kantar_com/Documents/Transfer/qe2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CEF1422-E5B2-4F49-9BDB-7E16E7A615C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{3CEF1422-E5B2-4F49-9BDB-7E16E7A615C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37D4719B-869C-49C3-B4D7-07C485ACC6CB}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="960" windowWidth="21600" windowHeight="11385" xr2:uid="{65008914-F2FA-4860-86CB-FE03FEB88575}"/>
+    <workbookView xWindow="1590" yWindow="480" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{65008914-F2FA-4860-86CB-FE03FEB88575}"/>
   </bookViews>
   <sheets>
     <sheet name="Anzahl_Personen" sheetId="1" r:id="rId1"/>
+    <sheet name="Personen pro typ" sheetId="2" r:id="rId2"/>
+    <sheet name="Personen pro Zeit" sheetId="3" r:id="rId3"/>
+    <sheet name="Dauer Pro Tag" sheetId="4" r:id="rId4"/>
+    <sheet name="Dauer pro Typ" sheetId="5" r:id="rId5"/>
+    <sheet name="Dauer pro Zeit" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="257">
   <si>
     <t>(berneroberlaender.ch)</t>
   </si>
@@ -798,6 +803,15 @@
   </si>
   <si>
     <t>vor 8. Sept</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Zeit</t>
   </si>
 </sst>
 </file>
@@ -833,8 +847,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,7 +1166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50981F48-A160-4891-B6A6-6E9FBC175791}">
   <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3951,4 +3968,3478 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772BB900-DFCF-42F7-AE96-EFCE62E311CD}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2">
+        <v>346991.79583333299</v>
+      </c>
+      <c r="C2">
+        <v>338828.067361111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3">
+        <v>204660.26666666701</v>
+      </c>
+      <c r="C3">
+        <v>200714.244305556</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3699A6AA-161E-4CB3-A5C2-12BB31A2F63C}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>24877.7</v>
+      </c>
+      <c r="C2">
+        <v>26827.674999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>29256.2</v>
+      </c>
+      <c r="C3">
+        <v>22668.546666666702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>37891.800000000003</v>
+      </c>
+      <c r="C4">
+        <v>31205.4866666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>158579.5</v>
+      </c>
+      <c r="C5">
+        <v>103690.42833333299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>340517.7</v>
+      </c>
+      <c r="C6">
+        <v>258215.24666666699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>473516.55</v>
+      </c>
+      <c r="C7">
+        <v>343249.10333333298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>365482.3</v>
+      </c>
+      <c r="C8">
+        <v>358418.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>327151.55</v>
+      </c>
+      <c r="C9">
+        <v>331053.04833333299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>297970.40000000002</v>
+      </c>
+      <c r="C10">
+        <v>301396.10833333299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>322935.75</v>
+      </c>
+      <c r="C11">
+        <v>315181.59666666703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>401150.3</v>
+      </c>
+      <c r="C12">
+        <v>370989.308333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>328722.55</v>
+      </c>
+      <c r="C13">
+        <v>338859.90666666703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>300660</v>
+      </c>
+      <c r="C14">
+        <v>302098.65666666703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>341271.4</v>
+      </c>
+      <c r="C15">
+        <v>319416.03666666697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>326863.3</v>
+      </c>
+      <c r="C16">
+        <v>352622.34833333298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>381574.65</v>
+      </c>
+      <c r="C17">
+        <v>396795.815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>346795.25</v>
+      </c>
+      <c r="C18">
+        <v>385488.13833333302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>368391.95</v>
+      </c>
+      <c r="C19">
+        <v>402300.54166666698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>391705.5</v>
+      </c>
+      <c r="C20">
+        <v>410827.79666666698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>361958.55</v>
+      </c>
+      <c r="C21">
+        <v>415915.76166666701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>321277.25</v>
+      </c>
+      <c r="C22">
+        <v>356855.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>198674</v>
+      </c>
+      <c r="C23">
+        <v>192515.44833333301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>107592.45</v>
+      </c>
+      <c r="C24">
+        <v>87739.535000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>65008.15</v>
+      </c>
+      <c r="C25">
+        <v>50177.5566666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D32E6B6-7946-49BC-96C8-221A61279D2C}">
+  <dimension ref="A1:C254"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>240.25</v>
+      </c>
+      <c r="C2">
+        <v>69.713187830687801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>148</v>
+      </c>
+      <c r="C3">
+        <v>100.039215686275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>211</v>
+      </c>
+      <c r="C4">
+        <v>177.56305272108801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>61.5</v>
+      </c>
+      <c r="C5">
+        <v>108.473333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>136.19999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>164.13751322587299</v>
+      </c>
+      <c r="C7">
+        <v>161.638273847969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>152.24436476851301</v>
+      </c>
+      <c r="C8">
+        <v>162.357382300046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>120.00665726817</v>
+      </c>
+      <c r="C9">
+        <v>143.208182127215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>229.457738095238</v>
+      </c>
+      <c r="C10">
+        <v>295.75431871266801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1001.95333333333</v>
+      </c>
+      <c r="C11">
+        <v>1238.6335813492101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>239.38</v>
+      </c>
+      <c r="C12">
+        <v>180.680492622347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>83.5</v>
+      </c>
+      <c r="C13">
+        <v>110.95218253968299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>201.97435897435901</v>
+      </c>
+      <c r="C14">
+        <v>210.09063156025201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>36.876767676767699</v>
+      </c>
+      <c r="C15">
+        <v>36.719419183821799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>287.57142857142901</v>
+      </c>
+      <c r="C16">
+        <v>347.52609032546798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>72.745098039215705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>189.867346938776</v>
+      </c>
+      <c r="C18">
+        <v>183.93842546976001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>286.14999999999998</v>
+      </c>
+      <c r="C19">
+        <v>289.78077191478201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>182.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>112.541666666667</v>
+      </c>
+      <c r="C21">
+        <v>94.865601851851807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>83.7638888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>397.555555555556</v>
+      </c>
+      <c r="C23">
+        <v>484.95088326958899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>342</v>
+      </c>
+      <c r="C24">
+        <v>530.22222222222194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>76</v>
+      </c>
+      <c r="C27">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>228.52666666666701</v>
+      </c>
+      <c r="C28">
+        <v>165.51148192239901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>102.305555555556</v>
+      </c>
+      <c r="C29">
+        <v>140.41911982127201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="C30">
+        <v>210.89230442176901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>161.15925925925899</v>
+      </c>
+      <c r="C31">
+        <v>148.999654557817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>223.265934065934</v>
+      </c>
+      <c r="C32">
+        <v>191.78891611711401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>207.888888888889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>351.04166666666703</v>
+      </c>
+      <c r="C35">
+        <v>137.10263799857501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>198.414674674693</v>
+      </c>
+      <c r="C36">
+        <v>191.36342943805499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>262.082903002347</v>
+      </c>
+      <c r="C37">
+        <v>295.81859202126799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>141.05357142857099</v>
+      </c>
+      <c r="C38">
+        <v>180.30802870834299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>105.501187334478</v>
+      </c>
+      <c r="C40">
+        <v>74.417962559438394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>95.474999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>292.17653553282202</v>
+      </c>
+      <c r="C42">
+        <v>222.169090137311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>336.81092436974802</v>
+      </c>
+      <c r="C43">
+        <v>231.81037709204401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>106.8</v>
+      </c>
+      <c r="C44">
+        <v>86.457568027210897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>140.333333333333</v>
+      </c>
+      <c r="C45">
+        <v>193.496904761905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>118.314583333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>108.625</v>
+      </c>
+      <c r="C47">
+        <v>151.04115299823599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>41.6527777777778</v>
+      </c>
+      <c r="C48">
+        <v>66.185411698016907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>298.525925925926</v>
+      </c>
+      <c r="C49">
+        <v>191.63211046560599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>98.2083333333333</v>
+      </c>
+      <c r="C50">
+        <v>58.905217372133997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>76.3333333333333</v>
+      </c>
+      <c r="C51">
+        <v>177.94659391534401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>187.5</v>
+      </c>
+      <c r="C52">
+        <v>238.48601851851899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>111.833333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="C54">
+        <v>546.79806397306402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>188.04365079365101</v>
+      </c>
+      <c r="C55">
+        <v>201.26722891852901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>349</v>
+      </c>
+      <c r="C56">
+        <v>131.96664943730701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>186</v>
+      </c>
+      <c r="C57">
+        <v>91.369472789115605</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>50.25</v>
+      </c>
+      <c r="C58">
+        <v>53.299857690202501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>537.97424242424199</v>
+      </c>
+      <c r="C59">
+        <v>333.05652268873098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>177.362878787879</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>38.6875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>307.2</v>
+      </c>
+      <c r="C64">
+        <v>110.79777777777799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>162</v>
+      </c>
+      <c r="C65">
+        <v>134.15873015873001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>31.5</v>
+      </c>
+      <c r="C66">
+        <v>25.334294871794899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>83.174725274725304</v>
+      </c>
+      <c r="C67">
+        <v>69.965024010674796</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="C68">
+        <v>114.236664431264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>92.214285714285694</v>
+      </c>
+      <c r="C69">
+        <v>134.899684299754</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>145.75</v>
+      </c>
+      <c r="C70">
+        <v>60.119018518518502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>31.2</v>
+      </c>
+      <c r="C71">
+        <v>113.010361247947</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>64.6666666666667</v>
+      </c>
+      <c r="C72">
+        <v>118.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
+      </c>
+      <c r="C73">
+        <v>87.589855072463806</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>185.4375</v>
+      </c>
+      <c r="C74">
+        <v>203.516121031746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>66.5</v>
+      </c>
+      <c r="C75">
+        <v>307.10882352941201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>91.3333333333333</v>
+      </c>
+      <c r="C76">
+        <v>227.90035714285699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>143.42857142857099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>106.333333333333</v>
+      </c>
+      <c r="C78">
+        <v>147.22898148148099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>151</v>
+      </c>
+      <c r="C79">
+        <v>141.291666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>771.38803559987798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>51.5</v>
+      </c>
+      <c r="C81">
+        <v>65.156150793650795</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>441.5</v>
+      </c>
+      <c r="C82">
+        <v>74.297333333333299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>89.0416666666667</v>
+      </c>
+      <c r="C83">
+        <v>97.394094069997607</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>84.55</v>
+      </c>
+      <c r="C84">
+        <v>333.96976294290198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>834.75</v>
+      </c>
+      <c r="C85">
+        <v>550.89583333333303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>119.76</v>
+      </c>
+      <c r="C86">
+        <v>98.004450837742496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>14.714285714285699</v>
+      </c>
+      <c r="C87">
+        <v>19.590083994709001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>72</v>
+      </c>
+      <c r="C88">
+        <v>101.425466200466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>64.2</v>
+      </c>
+      <c r="C89">
+        <v>155.4675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+      <c r="C90">
+        <v>84.3333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>172.34014109347399</v>
+      </c>
+      <c r="C91">
+        <v>141.57470678757699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>122.80628571428601</v>
+      </c>
+      <c r="C92">
+        <v>150.55042746967399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>104.07375316990699</v>
+      </c>
+      <c r="C93">
+        <v>165.68626723005499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>97.286231884057997</v>
+      </c>
+      <c r="C94">
+        <v>112.039845033087</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>173.35294117647101</v>
+      </c>
+      <c r="C95">
+        <v>148.37053624992799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>50.5</v>
+      </c>
+      <c r="C96">
+        <v>100.394097222222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>21.9916512059369</v>
+      </c>
+      <c r="C97">
+        <v>23.837701330678701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>183.248148148148</v>
+      </c>
+      <c r="C98">
+        <v>156.823759606126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>53.8</v>
+      </c>
+      <c r="C99">
+        <v>135.62381834215199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>92.363636363636402</v>
+      </c>
+      <c r="C100">
+        <v>144.09243341535</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>1781.8</v>
+      </c>
+      <c r="C101">
+        <v>718.142684610076</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>127.064204545455</v>
+      </c>
+      <c r="C102">
+        <v>139.33372779293501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>92</v>
+      </c>
+      <c r="C103">
+        <v>122.166666666667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>49.954545454545503</v>
+      </c>
+      <c r="C105">
+        <v>180.70927251062199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>111</v>
+      </c>
+      <c r="C106">
+        <v>86.311403508771903</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>75</v>
+      </c>
+      <c r="C107">
+        <v>101.35561447811401</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>132</v>
+      </c>
+      <c r="C108">
+        <v>874.33472222222201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>35.150641025641001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>324.68518518518499</v>
+      </c>
+      <c r="C110">
+        <v>235.70537102546899</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>642</v>
+      </c>
+      <c r="C111">
+        <v>1223.3812499999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>355.61851851851799</v>
+      </c>
+      <c r="C112">
+        <v>363.35298804898798</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>165.42023809523801</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>72.517973856209196</v>
+      </c>
+      <c r="C115">
+        <v>72.805131986620097</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>60</v>
+      </c>
+      <c r="C116">
+        <v>132.887962962963</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>279.68147364940103</v>
+      </c>
+      <c r="C117">
+        <v>563.76461893945998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <v>617.58301169590595</v>
+      </c>
+      <c r="C118">
+        <v>713.73998217597602</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>73</v>
+      </c>
+      <c r="C119">
+        <v>563.04</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>482.98402777777801</v>
+      </c>
+      <c r="C120">
+        <v>518.69009914627304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>368.65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="C122">
+        <v>580.19804526748999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>32.701791726791697</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>421.16666666666703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>54.955555555555598</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>48.101190476190503</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>56.142857142857103</v>
+      </c>
+      <c r="C129">
+        <v>49.442476383265898</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>215.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>395.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>165.392857142857</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>39</v>
+      </c>
+      <c r="C134">
+        <v>139.760416666667</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>1461</v>
+      </c>
+      <c r="C135">
+        <v>138.138888888889</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>85.088888888888903</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>88.5</v>
+      </c>
+      <c r="C137">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <v>75.849206349206398</v>
+      </c>
+      <c r="C138">
+        <v>59.946537305442803</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>54.25</v>
+      </c>
+      <c r="C139">
+        <v>62.139138888888901</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>24.5</v>
+      </c>
+      <c r="C140">
+        <v>31.8519020251779</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>38.4</v>
+      </c>
+      <c r="C141">
+        <v>104.127195423624</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>182.36912202381001</v>
+      </c>
+      <c r="C142">
+        <v>116.73354547469199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <v>57.03125</v>
+      </c>
+      <c r="C143">
+        <v>122.505764352931</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>268.71884920634898</v>
+      </c>
+      <c r="C144">
+        <v>235.81726604388399</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>50.361594202898601</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="C147">
+        <v>112.374323927102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>104.75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>144.26235945767201</v>
+      </c>
+      <c r="C149">
+        <v>170.01749865780701</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>97.225595238095195</v>
+      </c>
+      <c r="C150">
+        <v>128.09012556891199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>148</v>
+      </c>
+      <c r="C151">
+        <v>172.614583333333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <v>418.66160714285701</v>
+      </c>
+      <c r="C152">
+        <v>346.24622989663601</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>80</v>
+      </c>
+      <c r="C155">
+        <v>203.938478188478</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <v>20.6666666666667</v>
+      </c>
+      <c r="C156">
+        <v>28.897633744856002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159">
+        <v>373.84523809523802</v>
+      </c>
+      <c r="C159">
+        <v>127.103721705621</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>63.125</v>
+      </c>
+      <c r="C160">
+        <v>111.538007991521</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <v>54.058267441370901</v>
+      </c>
+      <c r="C161">
+        <v>44.563992985764699</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <v>103.208791208791</v>
+      </c>
+      <c r="C162">
+        <v>156.15085081428199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>99.3333333333333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>60</v>
+      </c>
+      <c r="C164">
+        <v>121.175213675214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>45.1666666666667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166">
+        <v>41.618381127773397</v>
+      </c>
+      <c r="C166">
+        <v>40.492697745909503</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>164</v>
+      </c>
+      <c r="B167">
+        <v>162.23666812538499</v>
+      </c>
+      <c r="C167">
+        <v>133.08643642576001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168">
+        <v>129.11504507152699</v>
+      </c>
+      <c r="C168">
+        <v>197.463363991048</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>56.9444444444444</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>287.963977342102</v>
+      </c>
+      <c r="C170">
+        <v>321.95786101766703</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>53.772727272727302</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173">
+        <v>112.277777777778</v>
+      </c>
+      <c r="C173">
+        <v>122.683595083928</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>126.833333333333</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175">
+        <v>242.75</v>
+      </c>
+      <c r="C175">
+        <v>121.974264624265</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>531.018115942029</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177">
+        <v>179.888888888889</v>
+      </c>
+      <c r="C177">
+        <v>230.20103902116401</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178">
+        <v>246.19073503125199</v>
+      </c>
+      <c r="C178">
+        <v>217.819208232292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179">
+        <v>265.744152046784</v>
+      </c>
+      <c r="C179">
+        <v>277.532109059562</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180">
+        <v>169.17857142857099</v>
+      </c>
+      <c r="C180">
+        <v>236.89539215796199</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181">
+        <v>298</v>
+      </c>
+      <c r="C181">
+        <v>396.47969187675102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>118.39166666666701</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>88.1666666666667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184">
+        <v>41.5</v>
+      </c>
+      <c r="C184">
+        <v>74.159431742823799</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185">
+        <v>80.3333333333333</v>
+      </c>
+      <c r="C185">
+        <v>71.237493158182801</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>89.685185185185205</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>184</v>
+      </c>
+      <c r="B187">
+        <v>47.957927774839497</v>
+      </c>
+      <c r="C187">
+        <v>61.311178298396797</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188">
+        <v>500.7</v>
+      </c>
+      <c r="C188">
+        <v>290.81232804232798</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>186</v>
+      </c>
+      <c r="B189">
+        <v>61</v>
+      </c>
+      <c r="C189">
+        <v>126.969841269841</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191">
+        <v>303</v>
+      </c>
+      <c r="C191">
+        <v>153.23560606060599</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192">
+        <v>76.126666666666694</v>
+      </c>
+      <c r="C192">
+        <v>115.172541768093</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <v>113.70706966774399</v>
+      </c>
+      <c r="C193">
+        <v>125.77973972617301</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195">
+        <v>2505</v>
+      </c>
+      <c r="C195">
+        <v>60.181818181818201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196">
+        <v>237.88473389355701</v>
+      </c>
+      <c r="C196">
+        <v>162.47702014663199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197">
+        <v>1024.87719298246</v>
+      </c>
+      <c r="C197">
+        <v>566.48493037983201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>99.875</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>197</v>
+      </c>
+      <c r="B200">
+        <v>1046.54375</v>
+      </c>
+      <c r="C200">
+        <v>770.83645063462995</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>198</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>640.18939393939399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202">
+        <v>127.291666666667</v>
+      </c>
+      <c r="C202">
+        <v>43.683024691358</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204">
+        <v>178.629563492063</v>
+      </c>
+      <c r="C204">
+        <v>166.55547017643599</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205">
+        <v>107.528571428571</v>
+      </c>
+      <c r="C205">
+        <v>124.726345925239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206">
+        <v>219.862129380054</v>
+      </c>
+      <c r="C206">
+        <v>217.88228712410199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207">
+        <v>280.50905365126698</v>
+      </c>
+      <c r="C207">
+        <v>240.22809499946999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <v>325.561403508772</v>
+      </c>
+      <c r="C208">
+        <v>425.11243891713099</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>88.885833333333295</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210">
+        <v>60</v>
+      </c>
+      <c r="C210">
+        <v>70.178571428571402</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212">
+        <v>68.3333333333333</v>
+      </c>
+      <c r="C212">
+        <v>168.515722222222</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213">
+        <v>287.60000000000002</v>
+      </c>
+      <c r="C213">
+        <v>401.39741831428898</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215">
+        <v>46</v>
+      </c>
+      <c r="C215">
+        <v>122.38896765271799</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>77.809523809523796</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <v>60.3333333333333</v>
+      </c>
+      <c r="C217">
+        <v>49.044947089947101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <v>311.3125</v>
+      </c>
+      <c r="C218">
+        <v>292.51726622363299</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>125.729365079365</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>219</v>
+      </c>
+      <c r="B222">
+        <v>77.47</v>
+      </c>
+      <c r="C222">
+        <v>108.411590708674</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>220</v>
+      </c>
+      <c r="B223">
+        <v>186.86225490196099</v>
+      </c>
+      <c r="C223">
+        <v>194.04857045226899</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>221</v>
+      </c>
+      <c r="B224">
+        <v>60</v>
+      </c>
+      <c r="C224">
+        <v>65.646666666666704</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>222</v>
+      </c>
+      <c r="B225">
+        <v>320.43939393939399</v>
+      </c>
+      <c r="C225">
+        <v>341.50051001894099</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>223</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>224</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>62.133333333333297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228">
+        <v>60.1666666666667</v>
+      </c>
+      <c r="C228">
+        <v>132.10054453262799</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>226</v>
+      </c>
+      <c r="B229">
+        <v>177.19783950617301</v>
+      </c>
+      <c r="C229">
+        <v>215.56982310086201</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>227</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>60.477777777777803</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>228</v>
+      </c>
+      <c r="B231">
+        <v>60</v>
+      </c>
+      <c r="C231">
+        <v>68.181818181818201</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>229</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>230</v>
+      </c>
+      <c r="B233">
+        <v>125.481481481481</v>
+      </c>
+      <c r="C233">
+        <v>90.473026394901396</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>231</v>
+      </c>
+      <c r="B234">
+        <v>129.5</v>
+      </c>
+      <c r="C234">
+        <v>119.976436781609</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>232</v>
+      </c>
+      <c r="B235">
+        <v>201.666666666667</v>
+      </c>
+      <c r="C235">
+        <v>146.909236111111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>233</v>
+      </c>
+      <c r="B236">
+        <v>91</v>
+      </c>
+      <c r="C236">
+        <v>173.310695535603</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>234</v>
+      </c>
+      <c r="B237">
+        <v>323.72500000000002</v>
+      </c>
+      <c r="C237">
+        <v>409.39311996063401</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>235</v>
+      </c>
+      <c r="B238">
+        <v>60</v>
+      </c>
+      <c r="C238">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>236</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>54.5555555555556</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>237</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>125.56628086419801</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>238</v>
+      </c>
+      <c r="B241">
+        <v>180.89652283446401</v>
+      </c>
+      <c r="C241">
+        <v>170.98246200093001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>239</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>240</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>241</v>
+      </c>
+      <c r="B244">
+        <v>60</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>242</v>
+      </c>
+      <c r="B245">
+        <v>291.51893939393898</v>
+      </c>
+      <c r="C245">
+        <v>217.16845215383</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>243</v>
+      </c>
+      <c r="B246">
+        <v>42</v>
+      </c>
+      <c r="C246">
+        <v>111.533333333333</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>244</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>293.00823045267498</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>245</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>794.66666666666697</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>246</v>
+      </c>
+      <c r="B249">
+        <v>249</v>
+      </c>
+      <c r="C249">
+        <v>142.85869565217399</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>247</v>
+      </c>
+      <c r="B250">
+        <v>246.75</v>
+      </c>
+      <c r="C250">
+        <v>102.09062850729499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>248</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>59.378787878787897</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>249</v>
+      </c>
+      <c r="B252">
+        <v>131.61538461538501</v>
+      </c>
+      <c r="C252">
+        <v>195.85300597550599</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>250</v>
+      </c>
+      <c r="B253">
+        <v>215</v>
+      </c>
+      <c r="C253">
+        <v>187.58421052631601</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>251</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>100.33991769547301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFD248A-10DA-4A5C-BE13-D3058C42C42F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2">
+        <v>190.37952458299699</v>
+      </c>
+      <c r="C2">
+        <v>176.86417002418901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3">
+        <v>303.43780791599801</v>
+      </c>
+      <c r="C3">
+        <v>331.76979031055401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F898F0-6CCE-4BD9-95D4-BA3C41D98D28}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>101.648505892256</v>
+      </c>
+      <c r="C2">
+        <v>340.62613768645298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>267.40757575757601</v>
+      </c>
+      <c r="C3">
+        <v>291.56304077153499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>341.31111111111102</v>
+      </c>
+      <c r="C4">
+        <v>296.31266600606301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>261.53779558792598</v>
+      </c>
+      <c r="C5">
+        <v>261.32634728300502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>302.71864527342501</v>
+      </c>
+      <c r="C6">
+        <v>250.99878247652799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>231.75900793881701</v>
+      </c>
+      <c r="C7">
+        <v>263.80684521191802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>252.23518366898799</v>
+      </c>
+      <c r="C8">
+        <v>247.164499117882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>213.518253162197</v>
+      </c>
+      <c r="C9">
+        <v>251.19040040573401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>244.49096140826001</v>
+      </c>
+      <c r="C10">
+        <v>245.68748219931601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>204.083823921278</v>
+      </c>
+      <c r="C11">
+        <v>237.20832552030899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>220.82661135671901</v>
+      </c>
+      <c r="C12">
+        <v>241.23963821944699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>275.03091400488</v>
+      </c>
+      <c r="C13">
+        <v>242.633843306579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>248.33872678491099</v>
+      </c>
+      <c r="C14">
+        <v>244.315322411925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>219.92606238697999</v>
+      </c>
+      <c r="C15">
+        <v>253.24839052764301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>244.21962044046299</v>
+      </c>
+      <c r="C16">
+        <v>245.878251928732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>264.20030471212903</v>
+      </c>
+      <c r="C17">
+        <v>240.79912806249601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>261.16989091243602</v>
+      </c>
+      <c r="C18">
+        <v>249.84127679660801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>252.53648724814801</v>
+      </c>
+      <c r="C19">
+        <v>275.21192529752301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>326.82149025033198</v>
+      </c>
+      <c r="C20">
+        <v>286.21791989891398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>333.72775135054002</v>
+      </c>
+      <c r="C21">
+        <v>272.52226807940701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>232.34308780894401</v>
+      </c>
+      <c r="C22">
+        <v>243.58678623933201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>218.25892153575299</v>
+      </c>
+      <c r="C23">
+        <v>231.57741877792699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>231.20423003347699</v>
+      </c>
+      <c r="C24">
+        <v>214.35977139737301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>176.49302744039599</v>
+      </c>
+      <c r="C25">
+        <v>176.29105639426101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>